--- a/FLUXO DE CAIXA AGOSTO 2019/24-08-2019_FluxoDeCaixa.xlsx
+++ b/FLUXO DE CAIXA AGOSTO 2019/24-08-2019_FluxoDeCaixa.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael_Campos\Documents\GitHub\ConnectFibra\FLUXO DE CAIXA AGOSTO 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D00BBADE-C85D-4727-AAC0-4296F26303E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D29257-17BF-4B57-BA95-B0003AF3B25B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9152A456-9720-4D0C-842A-50118CAD28D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planilha1!$A$1:$B$25</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>FLUXO CAIXA DIÁRIO</t>
   </si>
@@ -57,6 +60,48 @@
   </si>
   <si>
     <t>24/08/19</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO DE SAÍDAS</t>
+  </si>
+  <si>
+    <t>DEBORAH</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>PAULISTA</t>
+  </si>
+  <si>
+    <t>PAULISTA(MILHO DA GALINHA)</t>
+  </si>
+  <si>
+    <t>JENNIFFER</t>
+  </si>
+  <si>
+    <t>UBER LUCIANO</t>
+  </si>
+  <si>
+    <t>PASSANTES</t>
+  </si>
+  <si>
+    <t>DESCONTO DO CLIENTE</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO AR CONDICIONADO</t>
+  </si>
+  <si>
+    <t>SUPORTE E ETC</t>
+  </si>
+  <si>
+    <t>ALMOÇO JEFF,LU,DOU,PAU</t>
+  </si>
+  <si>
+    <t>GASOLINA SYMBOL</t>
+  </si>
+  <si>
+    <t>VALOR TOTAL EM CAIXA:</t>
   </si>
 </sst>
 </file>
@@ -64,10 +109,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,23 +168,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF5ADB1-AEA5-4558-B31C-D3F166D0CCA5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,16 +513,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -466,13 +530,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1011.4</v>
       </c>
     </row>
@@ -480,7 +544,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -488,7 +552,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>161.84</v>
       </c>
     </row>
@@ -496,7 +560,7 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>892</v>
       </c>
     </row>
@@ -504,9 +568,124 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>(B6+B7)-B9</f>
         <v>119.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7">
+        <v>158.5</v>
       </c>
     </row>
   </sheetData>
